--- a/resultados/resultados_221206.xlsx
+++ b/resultados/resultados_221206.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ufranca/Documents/Dropbox/other_projects/FIA-Ajepi/Mundial2022/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD588FD-A024-8D4B-B91E-CFF1D4823B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92452BDC-7002-EB4B-8867-6C1F0C14B6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="500" windowWidth="26480" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:H348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="L306" sqref="L306"/>
+      <selection activeCell="A291" sqref="A291:E307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7769,6 +7769,12 @@
         <f>3*F291+G291</f>
         <v>0</v>
       </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
@@ -7782,11 +7788,17 @@
       </c>
       <c r="D292">
         <f t="shared" ref="D292:D307" si="34">D275+E292</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E292">
         <f t="shared" ref="E292:E297" si="35">3*F292+G292</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
@@ -7801,11 +7813,17 @@
       </c>
       <c r="D293">
         <f t="shared" si="34"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E293">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
@@ -7820,11 +7838,17 @@
       </c>
       <c r="D294">
         <f t="shared" si="34"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E294">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
@@ -7839,11 +7863,17 @@
       </c>
       <c r="D295">
         <f t="shared" si="34"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E295">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
@@ -7864,6 +7894,12 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
@@ -7877,11 +7913,17 @@
       </c>
       <c r="D297">
         <f t="shared" si="34"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E297">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
@@ -7902,6 +7944,12 @@
         <f>3*F298+G298</f>
         <v>0</v>
       </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
@@ -7915,11 +7963,17 @@
       </c>
       <c r="D299">
         <f t="shared" si="34"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E299">
         <f t="shared" ref="E299:E307" si="36">3*F299+G299</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
@@ -7940,6 +7994,12 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
@@ -7953,11 +8013,17 @@
       </c>
       <c r="D301">
         <f t="shared" si="34"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E301">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
@@ -7978,6 +8044,12 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
@@ -7991,11 +8063,17 @@
       </c>
       <c r="D303">
         <f t="shared" si="34"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E303">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
@@ -8016,6 +8094,12 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
@@ -8035,6 +8119,12 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
@@ -8054,6 +8144,12 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
@@ -8071,6 +8167,12 @@
       </c>
       <c r="E307">
         <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
         <v>0</v>
       </c>
     </row>
